--- a/scripts/data_analysis/out/analysis_result.xlsx
+++ b/scripts/data_analysis/out/analysis_result.xlsx
@@ -3945,7 +3945,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>11</row>
       <rowOff>0</rowOff>
@@ -3989,7 +3989,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>27</row>
       <rowOff>0</rowOff>
@@ -4033,7 +4033,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>43</row>
       <rowOff>0</rowOff>
@@ -4077,7 +4077,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>59</row>
       <rowOff>0</rowOff>
@@ -4121,7 +4121,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>75</row>
       <rowOff>0</rowOff>
@@ -4165,7 +4165,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>91</row>
       <rowOff>0</rowOff>
@@ -4209,7 +4209,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>107</row>
       <rowOff>0</rowOff>
@@ -4253,7 +4253,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>123</row>
       <rowOff>0</rowOff>
@@ -4297,7 +4297,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>139</row>
       <rowOff>0</rowOff>
@@ -4341,7 +4341,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>155</row>
       <rowOff>0</rowOff>
@@ -4385,7 +4385,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>171</row>
       <rowOff>0</rowOff>
@@ -4429,7 +4429,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>187</row>
       <rowOff>0</rowOff>
@@ -4473,7 +4473,7 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>18</col>
+      <col>19</col>
       <colOff>0</colOff>
       <row>203</row>
       <rowOff>0</rowOff>
